--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/1_Adana_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/1_Adana_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDEA4E6-8DF2-4569-A3B5-2470C59D19CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{188E59EE-6583-4430-8E59-4B4500D533E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{6E5B2B3F-A0D7-4B46-BE1E-22D13DD3BB09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{22030FE3-4E20-4537-AF08-6B5D66107959}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -942,13 +942,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{EB540E3D-DFE6-4072-A576-6B783DBE1413}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3CA29E3B-0706-4B7F-A644-1733F890EA2E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{89498F8B-80F5-4DD5-819B-5491AAA15006}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5A06915C-1CE7-47D0-B53C-033DF9A50649}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1B97DC2D-581C-41D9-9E96-4F89CDE2420F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{94F6E43E-9A55-47CA-9E07-68C0864F9920}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B2150EE7-55B4-4F29-92BF-1C7AB9E68A70}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{99260C10-BE30-4249-B2F6-79C22D872212}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{62F51769-606B-432C-885D-56D8F1719492}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{741B0799-E972-4499-88B9-7DDF53BFDBB9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C153E8C2-A153-4071-A6DC-973968312E0E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8750E50C-4AAB-46FB-8F5A-251C6CDB8991}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{187B1A48-88B7-4CEA-A2D2-8ACDC31F3F8C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{843917D1-BF81-4BAB-A164-474D5D4A4997}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFA6FB0-ED0B-476A-85F9-4872DBD6B265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFFEAD4-7D65-420A-A01A-C5D75AE7556F}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2642,18 +2642,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1C45309-28A7-4072-80A6-FA20FA42649C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A58A0D9E-D9BE-4965-9786-D8BC8579D873}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BEF5027A-2CEA-48B0-AC9D-8C93C841B4E4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{09E49112-BE36-426B-9860-66FC400A974F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05E3C0C9-6676-4650-8D92-4B2A455F6960}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22338F85-BCA0-4D43-A9BA-E1EE9CE1466D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4F90308-9346-442E-B974-6B792F4D1130}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0614376D-352F-4D24-91E1-679D21750886}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDA59A54-CC59-465D-8475-A6A1FE87F6A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39D0A360-0012-422C-90AA-E6B1A3C1B0AF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95192F58-7BF6-440C-A10A-02E1EA53AA7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D55798E3-CD61-446E-9FED-D2E11B5404B7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{139E622E-FAFE-4FAB-A409-04DDB7BC05D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9FE5F4D-5EBE-4E0D-9BEC-FC41BDEED368}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{198D4DD2-B651-40C6-BA5D-F1868A23FF80}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3E6E72C-7D11-4653-B14E-B8AAD6B9B660}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E6488C8-C91F-437D-A585-234CA01688D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0CBA29C-9E8C-4EC1-A0A8-EA85AB2776A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01DB8D23-B83A-4489-8B22-E238A3127CAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4D4702F5-91C4-4EAA-A12B-85158345857C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE086E1D-8313-42A1-89AD-1A27C3F15E2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B82B5C0-128E-4A0C-AA89-0AA98C4A83FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{573DCB7C-1987-4729-8290-3883F753FA1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C173428-BD79-49F7-9986-6D00AF0FBD28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2666,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF61478E-5F30-4D36-8A41-9841D661624A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46EDBD-FE09-4660-9CB9-712566EB91EC}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -3971,18 +3971,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A63B58C-80BA-4353-8008-908B3653C2EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3FCEEC8-77F0-4A2E-A351-D18DDD8D1C7B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B0152F03-A07D-4C2B-8A1F-88322BD4EF92}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B28B7A49-6CE5-451B-9237-743DBCE46668}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{976FEB26-82FA-444C-BF47-4F778899F51C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6E2459E-AAB6-4EA7-BD33-CF5D48A1F6B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02FE2F69-D03F-44B0-8D0B-C46B4CD4A1F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05592FB2-5CAD-4857-9910-5031CFE79F4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ECB7455E-FC6E-4CB0-9FB8-A1E9F9173513}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2379AEA3-AAA8-4B53-905B-2C9DBA21840D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{68C42854-8534-4299-809F-491B48830BC9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F086C7A-FA5A-4D21-9248-E12DCA9AD2D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72DB10CA-47FF-4FCE-AE4C-401A38DEF3A5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00704170-8E1A-46CE-9969-ACA1AEDC7965}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61C89DCD-3477-4C96-8B73-601BC60ECE6E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{97E6F990-A048-4B4E-B958-6EB1F3913EEF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B76B3D20-215F-4E01-9FE1-53B1553805B6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27D37D34-F888-4458-9EFC-3D763ED21764}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7BF07E0F-FA5B-412F-B2D5-B6697D3C397B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D02E12C-E9C6-4E8A-A54C-DDA54B7BA053}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0D69E0B-7E8C-4D0D-83A8-A5A9CD881FEC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{159EB4A5-F298-4272-A005-9D75CAC34933}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A74D0F7F-8952-419F-B57E-F4749ECB6823}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BBB07A27-0F44-4200-AF36-89F7AC7BAB8F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3995,7 +3995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD2B9EA-D7A4-445A-B78A-4694A2F91FA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087BBFBE-ADCB-4B09-8A80-8BEA351D18F3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -5300,18 +5300,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBB4B4AC-752A-4B16-B8D4-97149A57AD99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B6E3BD2-E6E9-4DB2-AD28-EDBF1216D320}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{549B8B88-11E3-4B9A-924D-08510F6A24A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0D406402-8B64-45EA-BF8C-2FCE5728CD5B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52A987A5-EEE3-4FF0-B67D-5EAEFB508427}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37372DEC-722A-4B54-8B45-B681B51B64F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1D23509-8DCE-4A62-8FA9-D1B476152E96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47B73FEB-78D0-486A-A7E8-664ED0A70784}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0098787E-E243-4A78-A65C-12A6BF30F0BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FC26AA6A-B57A-4348-80A3-A43CD2264BE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF950CBB-B33B-47F5-9A1A-99D4E6C0C52A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A072E9E0-0050-42C8-A418-2EB755612710}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF6E9806-455C-41BA-B64F-D859E3F63A0F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08B7026E-3FD0-4F22-98DA-C6328D112041}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D82558D2-5AA6-4B95-B819-1980E030936A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{56831E86-7F99-4436-A5C9-72FD8D9CA11E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B46268C-CCA1-4746-BDFD-F24EDEFBA3B0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29CE90F0-E996-4CE2-87D1-53E325DB39C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71EA9690-54A5-4BCA-BAFE-993385E3D7DA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4423CA5C-AAB7-4F3F-B6A2-E7EB7A83E17C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A66FD0A-5462-448C-A4D5-ED840DDDF5C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2B34AAF-F7FF-4329-AD8C-07014DF018A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{409041B9-F96C-4435-8B47-5F3A1C768907}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B24CE8AC-3BBF-4EFF-98D3-9D59ADC5DFC8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5324,7 +5324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596B0A09-E45B-4579-9F36-12E01AF97FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5916E2FF-533B-487B-AC66-0C6E820E6A6A}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -6629,18 +6629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A2D7785-F700-467A-9C9B-0AEDAC9A2FD7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A09A5FB-613D-46AC-82D9-E6B214058B32}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D30399C-A2A1-4F6D-BC75-0B7B485E7805}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{69306F68-FA1D-4051-9572-B1DE7A33E0F3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89D16D22-B26A-438C-9EC5-7192B3C49F77}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C9A2B1F0-5085-471D-BD33-E267DC0B827D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14105009-88FE-4BA2-9750-FA22F6C6DD9C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11AC2D48-3DEF-4340-8BD8-3AC638AE708B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AFB91C3D-AC35-4B8B-91E0-5F7437E8EB37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB890BB3-94E6-47CE-B173-FE40E5FFBC81}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95455B72-8D4C-42E0-8323-2F8A869D546B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BA7FAFC-472E-41CE-BB89-B54BF97DCF9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDB3D93F-CD8D-43EC-88C8-B3E8C988F9F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{617D13E8-0767-406E-97F4-26C05FF7D0C8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4CD46093-760D-47BE-9D80-14C15F69FD0C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C95674E3-3FFA-4287-A6BF-753B9EEA8D99}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C76102E-C531-41C4-BC9E-49109AFDDC29}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{688E7354-E419-4A79-9166-B474E9FD9484}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37DA46CC-562E-4D6E-8D17-CE899D427274}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B600E66-DF12-4CC3-B8F5-8A9302620DDE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2405E672-6E78-4920-9E3D-E6B116DC20A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE0372B6-E0D9-4432-9C31-DA98DB3C24D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D49A0B6-FDA6-441C-BF7E-671A11E02180}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B50D042-D313-47E5-8A2E-6BFF304FE20A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6653,7 +6653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B902ED49-2701-4679-9951-7D0191AEA7A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E89582C-3AA0-4C81-9021-1B7BC37FF1D8}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7971,18 +7971,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8252FF7-1F93-49E3-BEE2-5F8ED9B6F9C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{24B85B06-47FD-484F-9718-2A1A8A87B025}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77803097-3396-496E-81A2-8EAB30694F11}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E1A44EDC-8CC7-4D50-950D-0DF66B45CE63}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E11D06AD-B01F-47BB-B6FF-F6A7D48DF313}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F2FEB40-9207-483A-B9E0-680A5EE9CB86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CE6B1BB-86E1-4F63-8FC8-214064E6EE90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD3EFF9C-994C-4337-88D5-75DC3F7CBB64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCC242C2-0E91-4946-B640-44112160C989}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0743DE6-BE70-4F47-A19C-A612A1A7B069}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF88DB92-4930-49AE-80C5-355D062F25A2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{409FCB93-6B7B-4ED5-8269-9E718290AC12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83AD5091-55FF-47B0-B4F2-671C03FF5463}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84332323-F1ED-45DD-8C8D-6FC6FF2E36C0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{372C3017-1983-4AEE-ABEF-3D9F80944B99}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DFA984B-EA8D-48C8-A91E-51711D232A59}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98569698-81C8-4BD7-9FC0-360FAE8B3998}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{801EB722-F6AD-4D69-9A35-0591880D5CBD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28AA1F1C-2071-4BB2-A38C-8B026AF41659}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A40D5982-6452-4DC5-831A-899DAD9D3107}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC3BAEDC-C814-4E32-A864-B6B595107D33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3282A7BB-2B3B-4D71-858D-F5F1E8039C91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{63BEC11D-B221-4BB6-9185-AD3DFC0AB908}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B21EDD20-1B62-4274-A3A2-FA46B8BF078E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7995,7 +7995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E49617F-719D-470C-AA9E-0F01796A417D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B2D3EF-1001-4744-941D-61E849DFA399}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9313,18 +9313,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F882D33-CE48-407B-9308-AFDF310C6458}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{454BCCA9-4A82-4A20-BB5F-DA42129ECAD2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9037A3C-382B-4B04-922E-72A56F13A73A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{141C38D2-C6B4-4D36-B20F-5093DF4FBBD4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECA7D088-3C2A-45C3-A062-8C1D140B071E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A4052A2-55FA-4669-8BC8-1B71825D8444}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBF9C04C-7BEF-4839-A983-55DB3FE01405}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D0415FB6-83FE-4408-964E-1760CFC6EFB9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CD5EFFBD-79AA-406D-8526-F7BDC514BC23}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C69CEC49-F34A-4547-8563-40B6F939E31A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B649D39-DC19-4BE3-AC19-3333617B86D9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{78D858FD-E63F-45C1-B931-6E93F4372C94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C089C338-0A68-4C75-8F50-8517A47D4B4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB524B38-3BE3-4DF5-A1E7-3C41ABC9F55A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E007C5E7-6021-46C3-BA16-99B91501B636}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E7B680C-709E-42B4-8543-5750FC5BD990}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{004EE93D-557C-4F35-AB45-56A57C6BCF35}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A945DF3D-B2D5-4F8A-A3B5-AA758D059855}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{152DCA8A-19A5-49E7-AE37-D1D42A8058D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8E92040-E881-47C0-A1A3-1D33059C2125}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D66547C-59A1-4A32-A981-11F03B00C491}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{55EF1C80-A74B-44A3-AC15-C88ED1B169F8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2427F3DA-8631-46A2-8899-88021D7DB76A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F8F730E2-595D-48B0-96A4-9BC1E6E2FFDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9337,7 +9337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B950ACD-E476-4897-A59C-A36F3059E40C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FC851-7BD3-4EED-8A7B-C5BD87610A9F}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10655,18 +10655,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5B4C053-2CCD-46D0-A169-96EF74EF699D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB6B432F-207A-4D44-ADD7-B43E94AAAF98}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9A60E854-B955-4658-819A-6653D70951AE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{06BA8704-0020-49F5-BD43-9540F6045726}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F73B0859-78AE-40D2-95F2-51DC75BB3818}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4051F8CB-4EA5-4547-80F0-EC2EC6743014}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{769AACF4-546F-4946-B047-35EDF016A139}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FCF8944-668F-45D7-8648-BD126F4BAC77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1EDD0C1B-CED3-4DE9-BB3C-BD874C2BD2C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2CBC81C1-9CB8-47D8-B902-6A137EF9A3EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7A0BA67-1D69-47EB-B252-9135E706CBF1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE184CF9-E507-44DD-9B6B-306233D68AA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4366AE9E-9B68-4736-AB2D-BEBA5A2CA1BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9C8321F9-CCC7-4EB0-B195-C70CEC74A2B1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4CD7489F-CC5E-4696-8CF6-778326483C72}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F3B640D-48A8-4C37-BB79-619A4C682BA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01D94B87-5A54-4DA2-9A1D-0AECFE30C358}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7DFFA368-CD13-46B6-BD89-E96EA2C6131B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BFD8D64-476F-4362-96A1-64E02FC4D4B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2103AAB-D593-4354-A08B-07825CB15992}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5E62621-64D1-4C3F-894E-1FA0D55D0909}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8CA5FC15-EC41-45E1-BF4A-187AE2AB8FC5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4906679C-E870-4B39-9FD5-D831BD0C4BF3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E244850C-C9F6-4D32-8604-0710B97B511D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10679,7 +10679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563D866E-7536-4EB5-87D8-AD713A0C761C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1402C622-C7EB-462A-B820-C9D5F0CA2A5D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11997,18 +11997,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41352079-AFC4-4B09-B0CA-007335561CD8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A4A56DC-AD1B-497C-937F-9A8CE955CE70}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E2609711-39D1-422B-B15E-20F258E357D0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D60FC062-3A32-43A2-AFAA-2E8B77DCBD8B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{901C5FF4-5D02-410C-81FE-272C18F8B596}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F51D0C17-16DF-4BC7-985A-B345F5192048}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B68E8108-05B4-4A06-9DEA-3BD42E6352F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1F7C8C4-E937-4D84-8CF1-767CAAE62453}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23D9D8BF-722C-4D3B-ACA3-D6CCDDDF24DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{95970644-64A9-45AB-94A5-0D6F5985C552}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A287D29-B11B-4433-9F24-B7F733C5A3C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9EC7CE10-C47A-450C-AD2F-A73C42954AD3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7C97B2F-0E19-4733-8472-F305EA492D6B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{430BEB23-E3CA-42D5-9789-1ACE47571ED7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2369C08F-B72D-4ECD-8D9E-192CCBCB4BA5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC4DCEA9-2EB1-4D4E-9F20-7196FDD5D50C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CC45B856-0750-4152-B79B-4E14849F1216}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BA45F46-7C6F-4DB1-A8C6-FF251F0D9E63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45578692-C2CD-41BF-8897-1860EF61B033}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD786D46-C680-4001-8B9A-46F3F34F03F9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C7EE090-89E4-4407-9788-3E3331566FA1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68956545-B598-4E80-81D4-8D9D532980B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05B43458-F17C-4C57-936A-D1EB9BF94561}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{581D8122-BD18-48D9-BDDC-0D2730409983}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12021,7 +12021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BFB3A4-E404-412D-A813-EBF15A20A349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4373D11-2FED-4133-A48C-10B094F44DF0}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13339,18 +13339,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3C419AD-83D4-4B4F-8E09-6B6E3D68B349}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3559A9A5-92C2-42A6-BA22-665CDDE3CA49}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B668AAB7-66B3-4114-BFA4-7FBEA4DB1208}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AC5DAE9B-F2BD-4F47-BD4F-9D63275424FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9BE25C5E-819D-4EC9-8D63-890D2412C39D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{29D8CDF6-CBCE-4FBC-B896-E73C9C4A0409}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAEE26D1-1842-43E8-B773-4B320C119C7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFDCCCDC-5143-4828-8F57-6B8B6D23F1D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4022D08-D68C-4C0A-8D6B-B1A719001097}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1CBEFAD0-C3E6-4097-88D2-EA5250A3920F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{381D56C1-B8D0-415D-B068-CAFDC9F8D745}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{700C0FE1-CF6F-4C99-88E2-5681C836D1B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB09E7E2-6BC0-4FFD-BC63-411A2F27A9E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21825248-D4A9-4500-8543-17AB17623967}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11C9E09A-E960-4639-8193-0063E837130F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F4A7E47A-23C4-4984-B476-05B22AAA1ED5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CAA070D0-47B5-478B-B199-6614ED240B66}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BDDAD20-473C-425C-88E6-374452CF797A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A59D9F2-C590-4A35-B06F-2BDD68C74F1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A83E578A-170D-4985-8D2C-21F17D785826}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76FE575D-C0A1-4A1A-A1D0-E9606F3795C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{751AA173-39CB-4B7F-B59C-D96603BC9654}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F626693-9A2C-479A-83DA-D4F016FC2B24}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D163048A-1F17-4144-9953-93053BCC78C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13363,7 +13363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDB5123-2008-46AC-B983-A261C4D73A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F3B824-C811-4EE6-9B6D-0546F1CD8A53}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14681,18 +14681,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35E0C1CE-DE0B-4FFB-B4D9-42821F6889BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7EF5770-F2AF-4A3A-935D-DA6D5464F956}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0AA25AC-D271-4B21-82A1-AA6D8AA5CAF2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2C13DDE2-BFA2-47E4-AD2E-6965B3470714}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF01EBBD-DC44-4B90-870B-D1F7AD82F163}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06FF53A5-6EAE-4FE7-A0A8-DEC8F7A973D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD293388-DF2A-4E2C-9CB4-A93A5C7CF8C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2EFAD48-3CE3-45FC-B9ED-C32C59F9D710}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{275B1362-5CCA-4ED2-B4C2-760FFE014F71}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{521BEA33-EF9F-4074-80E0-8B63A32D78C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{961D6E54-AA43-442C-A0E2-071CDECBB308}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E1CAEED-15A7-435E-AD87-F3BF0B000A7D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{828CDB4C-0A23-4D93-86C5-AD24FBA055CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9A991BD-4AC1-4EE8-945B-B71CD67D0099}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B6AB2EA-10FA-4067-842D-17B2ACE59652}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3783E5A0-4BC8-4810-8B43-B6AC2622A340}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D8E24F7-4A9D-41EE-B4B8-9D854820424B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2C68430F-ACFA-4030-9473-283AFF42796D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{51477EFC-BC99-4CBC-A1A6-9B8522DC91C8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04480A25-8B65-456A-BF5F-3EEAB530D2EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1C00ACE-87EC-4D53-9B96-7522E386710E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5CED027E-5C85-41A9-B2DB-CA9152F4B227}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76A0D569-BD22-49AB-BDCD-BAD593AFDA90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E8FCD60-7944-437E-9775-F4C562907B27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14705,7 +14705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA43DA91-9165-480F-8A09-529C79D79E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA0F929-D2C0-4AEF-951A-276922CCA03D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16023,18 +16023,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AE6D072-2D92-4DCD-8575-8264D323580D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDCE4BDC-FA58-40A4-810E-1B46BACCFF6E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82AF78DE-D4A0-49E3-9940-F34AEB87CB5F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E19D0DCA-CCBB-49F3-B5CD-BBAE3CAD6F4D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2574C5D7-A62F-4363-B55C-EF5344DCDD9C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08DFA6EF-8052-470C-A3E0-8AD1A2C0F7E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EBCEBCFD-C1A8-4FAF-9A78-2C22BEF45D21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5002DE7E-51A2-47FA-B733-937DA484E406}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1888B9B-DC64-407F-8C67-B3D0581E85DF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F8B714AF-CA70-489B-9914-83E017E69A61}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDB689F5-9679-4C38-9E03-6E93A3C93746}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6341654C-7F93-45D9-8903-FAA08C6D6CC3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7011278-CCEB-445F-9A0D-0A31776F89AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D811383-6192-4A37-A999-77B2D6A4C831}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DF3ACD91-219E-44E8-9912-356F1E465BFC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{796FF34A-E0C4-4FAF-BC4B-CB91804251E6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BAF8223-E8CA-4A2D-A996-68F5F4D6994E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A0AB592-E9C6-4D4F-81DF-8A0C54C923FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{977639B8-E3B8-4A3A-9DCA-BE58A7C923CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DD39406-C81A-4350-A905-5A0A96B3FCE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{187A0E75-6F7D-466E-AE16-564BB7023261}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6CCB54B-504D-42B3-A650-6FEA60DAB61E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FB85633-24F9-401E-A4D7-062A9D693F81}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{497B16B2-96DE-4B6E-8872-500505FEE531}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16047,7 +16047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF557FF1-AE8E-44DB-9B4E-FE26A8ECF70E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899B7992-D0DA-424E-8A31-97A2E387B803}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17365,18 +17365,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A66ACED9-A098-496B-A46B-1FF178307E11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21F6BA3D-AD69-4C92-899D-5CF6ACAA787E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E21956D1-813B-445E-9346-F35DFB9C7688}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D992EB41-6147-49FF-A2F7-B9E3BE9C3B06}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CECCFBF6-123C-47D9-BA58-432ECD1AF976}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BF29CA96-3E19-456C-83F4-47CC3956C878}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D92115C-1E90-4458-8066-BDD72E9EF9BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C96C1427-B421-47A8-880E-0B139E87E8AF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF7132D4-7E27-442C-8EF9-BA6A81C32DC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DF55235C-E3E0-4CF6-9B4E-86E9B155D122}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3FB21F95-3C05-45F4-AC95-4E6062818506}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{182007DE-686F-4E58-9121-4C17B4D1A2C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{04964197-EB76-4800-9C9E-3D0364DC862A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55296B79-22C5-446A-9C1A-258ACAFD3C30}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{73D397CB-6852-4D41-ABD7-2F866CD3D7FA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B18217E1-CC23-4970-8523-7E0B5A80A306}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16A4B05F-D3E1-45FB-B5F0-263573A3A0EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0DAD757F-6402-439C-86D6-8195FE014629}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55AB74EC-00BC-41EB-B802-B30C1CEE386E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5476B17B-7C86-4194-8433-30CF9AAB9264}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F068330A-D5A2-4F0D-A644-3BD57ECFFF3E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB03AFF8-A59E-4455-AE19-9494092965BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6ECC76ED-2076-4B27-837B-68BB5746DFC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B84AA08-1EDE-4492-A097-41311B67F9E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
